--- a/data/output/FV2504_FV2410/ORDRSP/19116.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19116.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="219">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="219">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -770,6 +770,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U82" totalsRowShown="0">
+  <autoFilter ref="A1:U82"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,7 +1089,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5026,5 +5059,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDRSP/19116.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19116.xlsx
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4494,7 +4494,7 @@
         <v>207</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -4756,7 +4756,7 @@
         <v>208</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -4880,52 +4880,52 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="2"/>
       <c r="L69" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O69" s="5" t="s">
+      <c r="O69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P69" s="5"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="V69" s="5"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -5044,48 +5044,48 @@
       <c r="V71" s="5"/>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="2"/>
       <c r="F72" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5" t="s">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K72" s="5"/>
+      <c r="K72" s="2"/>
       <c r="L72" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="M72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5" t="s">
+      <c r="N72" s="2"/>
+      <c r="O72" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P72" s="5"/>
+      <c r="P72" s="2"/>
       <c r="Q72" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5" t="s">
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="V72" s="5"/>
+      <c r="V72" s="2"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -5144,50 +5144,50 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="2" t="s">
         <v>210</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5" t="s">
+      <c r="N74" s="2"/>
+      <c r="O74" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P74" s="5"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="V74" s="5" t="s">
+      <c r="V74" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5304,50 +5304,50 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5" t="s">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K77" s="5" t="s">
+      <c r="K77" s="2" t="s">
         <v>210</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5" t="s">
+      <c r="N77" s="2"/>
+      <c r="O77" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P77" s="5"/>
+      <c r="P77" s="2"/>
       <c r="Q77" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="V77" s="5" t="s">
+      <c r="V77" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5464,48 +5464,48 @@
       </c>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="2"/>
       <c r="L80" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5" t="s">
+      <c r="N80" s="2"/>
+      <c r="O80" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P80" s="5"/>
+      <c r="P80" s="2"/>
       <c r="Q80" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="V80" s="5"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
